--- a/HDK/DBBC_7205_Single/DigiBuckBoost_Single.xlsx
+++ b/HDK/DBBC_7205_Single/DigiBuckBoost_Single.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sch\Desktop\Digital_BuckBoostPower\HDK\DBBC_7205_Single\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00B2B77-93D5-4EFE-8E8C-A33D11CC5350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE578934-F6C7-47F2-B51A-B8416C117C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="3870" windowWidth="31980" windowHeight="15435" xr2:uid="{8C0745E0-F031-428C-9765-19775348DE47}"/>
+    <workbookView xWindow="5835" yWindow="2520" windowWidth="25455" windowHeight="15435" xr2:uid="{8C0745E0-F031-428C-9765-19775348DE47}"/>
   </bookViews>
   <sheets>
     <sheet name="DigiBuckBoost_Single" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +499,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,6 +564,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -897,13 +906,15 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="6" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="77.5" customWidth="1"/>
+    <col min="4" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -933,7 +944,7 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -953,7 +964,7 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -973,7 +984,7 @@
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -993,7 +1004,7 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1013,7 +1024,7 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1033,7 +1044,7 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1053,7 +1064,7 @@
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1073,7 +1084,7 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1093,7 +1104,7 @@
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1113,7 +1124,7 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1133,7 +1144,7 @@
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1153,7 +1164,7 @@
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1173,7 +1184,7 @@
       <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1213,7 +1224,7 @@
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1233,7 +1244,7 @@
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1253,7 +1264,7 @@
       <c r="B18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1273,7 +1284,7 @@
       <c r="B19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1293,7 +1304,7 @@
       <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1313,7 +1324,7 @@
       <c r="B21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1333,7 +1344,7 @@
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1353,7 +1364,7 @@
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1393,7 +1404,7 @@
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1413,7 +1424,7 @@
       <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1433,7 +1444,7 @@
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1453,7 +1464,7 @@
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="9" t="s">
         <v>86</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1473,7 +1484,7 @@
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1493,7 +1504,7 @@
       <c r="B30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1533,7 +1544,7 @@
       <c r="B32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1553,7 +1564,7 @@
       <c r="B33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1573,7 +1584,7 @@
       <c r="B34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -1593,7 +1604,7 @@
       <c r="B35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1613,7 +1624,7 @@
       <c r="B36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="9" t="s">
         <v>115</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1633,7 +1644,7 @@
       <c r="B37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1653,7 +1664,7 @@
       <c r="B38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -1673,7 +1684,7 @@
       <c r="B39" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1693,7 +1704,7 @@
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="9" t="s">
         <v>130</v>
       </c>
       <c r="D40" s="2" t="s">
